--- a/Spectra/Gen 2/Calibration/calibration.xlsx
+++ b/Spectra/Gen 2/Calibration/calibration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Andrew Balch - Doryab Research\Spectroscopy Experiment\Gen 2 Assets\Experiment 2 - Fine Tuning\Spectra\Gen 2\Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C68F5C-A8D5-4628-847F-1749256F2013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5231B59C-DCDE-4795-AB73-EBFEAE9B8359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15960" yWindow="1800" windowWidth="15720" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="1440" windowWidth="16440" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -192,13 +192,13 @@
                   <c:v>1560</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1789</c:v>
+                  <c:v>1778</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2038</c:v>
+                  <c:v>2041</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2308</c:v>
+                  <c:v>2306</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -274,16 +274,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1526</c:v>
+                  <c:v>1514</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1749</c:v>
+                  <c:v>1738</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1988</c:v>
+                  <c:v>2004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2275</c:v>
+                  <c:v>2265</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -444,16 +444,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1532</c:v>
+                  <c:v>1527</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1771</c:v>
+                  <c:v>1755</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2016</c:v>
+                  <c:v>2009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2297</c:v>
+                  <c:v>2281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -529,13 +529,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1576</c:v>
+                  <c:v>1583</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1797</c:v>
+                  <c:v>1799</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2034</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2320</c:v>
@@ -617,13 +617,13 @@
                   <c:v>1602</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1840</c:v>
+                  <c:v>1835</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2080</c:v>
+                  <c:v>2085</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2352</c:v>
+                  <c:v>2354</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -703,16 +703,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1531</c:v>
+                  <c:v>1532</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1685</c:v>
+                  <c:v>1762</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1988</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2288</c:v>
+                  <c:v>2291</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -835,25 +835,25 @@
                   <c:v>1560</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1789</c:v>
+                  <c:v>1778</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2038</c:v>
+                  <c:v>2041</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2308</c:v>
+                  <c:v>2306</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1526</c:v>
+                  <c:v>1514</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1749</c:v>
+                  <c:v>1738</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1988</c:v>
+                  <c:v>2004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2275</c:v>
+                  <c:v>2265</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1528</c:v>
@@ -868,25 +868,25 @@
                   <c:v>2281</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1532</c:v>
+                  <c:v>1527</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1771</c:v>
+                  <c:v>1755</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2016</c:v>
+                  <c:v>2009</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2297</c:v>
+                  <c:v>2281</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1576</c:v>
+                  <c:v>1583</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1797</c:v>
+                  <c:v>1799</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2034</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2320</c:v>
@@ -895,25 +895,25 @@
                   <c:v>1602</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1840</c:v>
+                  <c:v>1835</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2080</c:v>
+                  <c:v>2085</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2352</c:v>
+                  <c:v>2354</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1531</c:v>
+                  <c:v>1532</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1685</c:v>
+                  <c:v>1762</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1988</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2288</c:v>
+                  <c:v>2291</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2218,8 +2218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2253,7 +2253,7 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3">
-        <v>1789</v>
+        <v>1778</v>
       </c>
       <c r="C3">
         <v>487.7</v>
@@ -2262,7 +2262,7 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4">
-        <v>2038</v>
+        <v>2041</v>
       </c>
       <c r="C4">
         <v>546.5</v>
@@ -2271,7 +2271,7 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="C5">
         <v>611.6</v>
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>1526</v>
+        <v>1514</v>
       </c>
       <c r="C6">
         <v>436.6</v>
@@ -2291,7 +2291,7 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7">
-        <v>1749</v>
+        <v>1738</v>
       </c>
       <c r="C7">
         <v>487.7</v>
@@ -2300,7 +2300,7 @@
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8">
-        <v>1988</v>
+        <v>2004</v>
       </c>
       <c r="C8">
         <v>546.5</v>
@@ -2309,7 +2309,7 @@
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1"/>
       <c r="B9">
-        <v>2275</v>
+        <v>2265</v>
       </c>
       <c r="C9">
         <v>611.6</v>
@@ -2358,7 +2358,7 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <v>1532</v>
+        <v>1527</v>
       </c>
       <c r="C14">
         <v>436.6</v>
@@ -2367,7 +2367,7 @@
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
       <c r="B15">
-        <v>1771</v>
+        <v>1755</v>
       </c>
       <c r="C15">
         <v>487.7</v>
@@ -2376,7 +2376,7 @@
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
       <c r="B16">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="C16">
         <v>546.5</v>
@@ -2385,7 +2385,7 @@
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
       <c r="B17">
-        <v>2297</v>
+        <v>2281</v>
       </c>
       <c r="C17">
         <v>611.6</v>
@@ -2396,7 +2396,7 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="C18">
         <v>436.6</v>
@@ -2405,7 +2405,7 @@
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
       <c r="B19">
-        <v>1797</v>
+        <v>1799</v>
       </c>
       <c r="C19">
         <v>487.7</v>
@@ -2414,7 +2414,7 @@
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1"/>
       <c r="B20">
-        <v>2034</v>
+        <v>2048</v>
       </c>
       <c r="C20">
         <v>546.5</v>
@@ -2443,7 +2443,7 @@
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1"/>
       <c r="B23">
-        <v>1840</v>
+        <v>1835</v>
       </c>
       <c r="C23">
         <v>487.7</v>
@@ -2452,7 +2452,7 @@
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
       <c r="B24">
-        <v>2080</v>
+        <v>2085</v>
       </c>
       <c r="C24">
         <v>546.5</v>
@@ -2461,7 +2461,7 @@
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
       <c r="B25">
-        <v>2352</v>
+        <v>2354</v>
       </c>
       <c r="C25">
         <v>611.6</v>
@@ -2472,7 +2472,7 @@
         <v>9</v>
       </c>
       <c r="B26">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="C26">
         <v>436.6</v>
@@ -2481,7 +2481,7 @@
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
       <c r="B27">
-        <v>1685</v>
+        <v>1762</v>
       </c>
       <c r="C27">
         <v>487.7</v>
@@ -2490,7 +2490,7 @@
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
       <c r="B28">
-        <v>1988</v>
+        <v>2016</v>
       </c>
       <c r="C28">
         <v>546.5</v>
@@ -2499,7 +2499,7 @@
     <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1"/>
       <c r="B29">
-        <v>2288</v>
+        <v>2291</v>
       </c>
       <c r="C29">
         <v>611.6</v>
